--- a/biology/Zoologie/Australothele_jamiesoni/Australothele_jamiesoni.xlsx
+++ b/biology/Zoologie/Australothele_jamiesoni/Australothele_jamiesoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Australothele jamiesoni est une espèce d'araignées mygalomorphes de la famille des Euagridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Australothele jamiesoni est une espèce d'araignées mygalomorphes de la famille des Euagridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre du Sud du Queensland au Nord de la Nouvelle-Galles du Sud.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre du Sud du Queensland au Nord de la Nouvelle-Galles du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 7,80 mm de long sur 6,35 mm et l'abdomen 8,20 mm de long sur 5,90 mm et la carapace de la femelle paratype mesure 7,60 mm de long sur 5,65 mm et l'abdomen 9,38 mm de long sur 7,50 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 7,80 mm de long sur 6,35 mm et l'abdomen 8,20 mm de long sur 5,90 mm et la carapace de la femelle paratype mesure 7,60 mm de long sur 5,65 mm et l'abdomen 9,38 mm de long sur 7,50 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Barrie Gillean Molyneux Jamieson[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Barrie Gillean Molyneux Jamieson.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven, 1984 : Systematics of the Australian curtain-web spiders (Ischnothelinae: Dipluridae: Chelicerata). Australian Journal of Zoology Supplementary Series, no 93, p. 1-102.</t>
         </is>
